--- a/data/trans_orig/P14C29-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C29-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{381CBD77-FEE4-402F-9814-B041BF733B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9797B0EB-793D-44DD-8C44-174A8225C542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1B500FDE-AC05-443E-8364-407F9C3DFA21}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{88C7187F-2F10-4E73-A88D-375DEF763A27}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -720,7 +720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE37ED24-7F1C-4111-BF70-FE6662C164D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BA265F-703B-4731-A5D0-40126C484E85}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C29-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C29-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9797B0EB-793D-44DD-8C44-174A8225C542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30BBFA5D-0F56-4295-88F5-C05753209E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{88C7187F-2F10-4E73-A88D-375DEF763A27}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D2E7332-B001-41B1-8078-452A4880F568}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="91">
-  <si>
-    <t>Población según el tiempo de diagnóstico del osteoporosis en 2015 (Tasa respuesta: 1,67%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+  <si>
+    <t>Población según el tiempo de diagnóstico del osteoporosis en 2016 (Tasa respuesta: 1,67%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,19 +83,19 @@
     <t>74,22%</t>
   </si>
   <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
   </si>
   <si>
     <t>75,74%</t>
   </si>
   <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,19 +113,19 @@
     <t>18,08%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,73 +134,76 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
+    <t>10,35%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -212,16 +215,16 @@
     <t>65,62%</t>
   </si>
   <si>
-    <t>30,29%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
   </si>
   <si>
     <t>72,2%</t>
   </si>
   <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>39,85%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -230,16 +233,16 @@
     <t>34,38%</t>
   </si>
   <si>
-    <t>69,71%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
   </si>
   <si>
     <t>27,8%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
+    <t>60,15%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -254,19 +257,19 @@
     <t>75,73%</t>
   </si>
   <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
   </si>
   <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -275,19 +278,19 @@
     <t>19,2%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>5,07%</t>
@@ -296,16 +299,16 @@
     <t>1,83%</t>
   </si>
   <si>
-    <t>10,86%</t>
+    <t>11,11%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -720,7 +723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BA265F-703B-4731-A5D0-40126C484E85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7297574-5BFD-43B2-ADDF-7C810112A6CC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1182,13 +1185,13 @@
         <v>940</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1244,7 +1247,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1259,7 +1262,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -1271,13 +1274,13 @@
         <v>6078</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -1286,13 +1289,13 @@
         <v>8272</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1313,7 +1316,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1322,13 +1325,13 @@
         <v>3184</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1337,13 +1340,13 @@
         <v>3184</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1364,7 +1367,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1379,7 +1382,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1394,7 +1397,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1477,13 +1480,13 @@
         <v>86969</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -1492,13 +1495,13 @@
         <v>97939</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -1528,13 +1531,13 @@
         <v>22047</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -1543,13 +1546,13 @@
         <v>22047</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,7 +1573,7 @@
         <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -1579,13 +1582,13 @@
         <v>5825</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -1594,13 +1597,13 @@
         <v>5825</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,7 +1659,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
